--- a/contents/cms/file_template/productList-template.xlsx
+++ b/contents/cms/file_template/productList-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="3885" windowWidth="24225" windowHeight="8010"/>
+    <workbookView xWindow="1815" yWindow="3105" windowWidth="24225" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="2" r:id="rId1"/>
@@ -14,48 +14,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>TmallSalePrice</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>productNameEn</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>category</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JdSalePrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>productNameEn</t>
   </si>
   <si>
     <t>originalTitleCn</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>priceMsrp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceRetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TmallNumiid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JdNumiid</t>
+    <t>color</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,20 +430,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" activeCellId="1" sqref="M1 N11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
@@ -468,42 +450,30 @@
     <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/contents/cms/file_template/productList-template.xlsx
+++ b/contents/cms/file_template/productList-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="3105" windowWidth="24225" windowHeight="8010"/>
+    <workbookView xWindow="1215" yWindow="5055" windowWidth="24225" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>code</t>
   </si>
@@ -40,6 +40,35 @@
   </si>
   <si>
     <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品编码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>主类目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称英语</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称中文</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>款号</t>
+  </si>
+  <si>
+    <t>库存</t>
+  </si>
+  <si>
+    <t>颜色/口味/香型等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -47,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,8 +110,14 @@
       <name val="DengXian"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +127,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,10 +167,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -430,9 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -476,6 +520,32 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
